--- a/output_3_ocs.xlsx
+++ b/output_3_ocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD7970-598C-4ACD-867E-66C51F692B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A682FF26-7CDF-4250-9107-D100B2AC0773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
